--- a/public/assets/files/Data Dosen.xlsx
+++ b/public/assets/files/Data Dosen.xlsx
@@ -1,22 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Coding\Monitoring TA\SIMONIKA\public\assets\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5F04AC-7939-4525-8CDA-7B3FC8699CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
-    <sheet name="Program Studi" sheetId="2" r:id="rId5"/>
+    <sheet name="Dosen" sheetId="1" r:id="rId1"/>
+    <sheet name="Program Studi" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
+  <calcPr calcId="191029" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="133">
+  <si>
+    <t>nip</t>
+  </si>
+  <si>
+    <t>nidn</t>
+  </si>
+  <si>
+    <t>nama_dosen</t>
+  </si>
+  <si>
+    <t>jenis_kelamin</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>telp</t>
+  </si>
+  <si>
+    <t>alamat</t>
+  </si>
+  <si>
+    <t>kode_prodi</t>
+  </si>
   <si>
     <t>Kode Program Studi</t>
   </si>
@@ -34,30 +63,440 @@
   </si>
   <si>
     <t>S1 Terapan Bisnis Digital</t>
+  </si>
+  <si>
+    <t>0722017601</t>
+  </si>
+  <si>
+    <t>0705038402</t>
+  </si>
+  <si>
+    <t>0022108005</t>
+  </si>
+  <si>
+    <t>0720108301</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0019018307</t>
+  </si>
+  <si>
+    <t>0004047712</t>
+  </si>
+  <si>
+    <t>0005038604</t>
+  </si>
+  <si>
+    <t>0027097504</t>
+  </si>
+  <si>
+    <t>110010122</t>
+  </si>
+  <si>
+    <t>197601222021211001</t>
+  </si>
+  <si>
+    <t>198403052021212004</t>
+  </si>
+  <si>
+    <t>198010222015041001</t>
+  </si>
+  <si>
+    <t>198310202014042001</t>
+  </si>
+  <si>
+    <t>198301192021211006</t>
+  </si>
+  <si>
+    <t>197704042021211004</t>
+  </si>
+  <si>
+    <t>197509272021211002</t>
+  </si>
+  <si>
+    <t>198311052015041000</t>
+  </si>
+  <si>
+    <t>198403112019031000</t>
+  </si>
+  <si>
+    <t>197506252021211000</t>
+  </si>
+  <si>
+    <t>199010052014041000</t>
+  </si>
+  <si>
+    <t>199004192018031000</t>
+  </si>
+  <si>
+    <t>199209052022031000</t>
+  </si>
+  <si>
+    <t>199203302019031000</t>
+  </si>
+  <si>
+    <t>199009052019031000</t>
+  </si>
+  <si>
+    <t>199202272020122000</t>
+  </si>
+  <si>
+    <t>198708272024211000</t>
+  </si>
+  <si>
+    <t>199209212020122000</t>
+  </si>
+  <si>
+    <t>202136248</t>
+  </si>
+  <si>
+    <t>198903232022031000</t>
+  </si>
+  <si>
+    <t>199103112022031000</t>
+  </si>
+  <si>
+    <t>Mohamad Dimyati Ayatullah, S.T., M.Kom.</t>
+  </si>
+  <si>
+    <t>Dianni Yusuf, S.Kom., M.Kom.</t>
+  </si>
+  <si>
+    <t>I Wayan Suardinata, S.Kom., M.T.</t>
+  </si>
+  <si>
+    <t>Eka Mistiko Rini, S.Kom, M.Kom.</t>
+  </si>
+  <si>
+    <t>Moh. Nur Shodiq, S.T., M.T.</t>
+  </si>
+  <si>
+    <t>Dedy Hidayat Kusuma, S.T., M.Cs.</t>
+  </si>
+  <si>
+    <t>Farizqi Panduardi, S.ST., M.T.</t>
+  </si>
+  <si>
+    <t>Herman Yuliandoko, S.T., M.T.</t>
+  </si>
+  <si>
+    <t>Devit Suwardiyanto,S.Si., M.T.</t>
+  </si>
+  <si>
+    <t>Endi Sailul Haq, S.T., M.Kom.</t>
+  </si>
+  <si>
+    <t>Subono, S.T., M.T.</t>
+  </si>
+  <si>
+    <t>Alfin Hidayat, S.T., M.T.</t>
+  </si>
+  <si>
+    <t>Junaedi Adi Prasetyo, S.ST., M.Sc.</t>
+  </si>
+  <si>
+    <t>Galih Hendra Wibowo, S.Tr.Kom., M.T.</t>
+  </si>
+  <si>
+    <t>Lutfi Hakim, S.Pd., M.T.</t>
+  </si>
+  <si>
+    <t>Sepyan Purnama Kristanto, S.Kom., M.Kom.</t>
+  </si>
+  <si>
+    <t>Ruth Ema Febrita, S.Pd., M.Kom.</t>
+  </si>
+  <si>
+    <t>Agus Priyo Utomo, S.ST., M.Tr.Kom.</t>
+  </si>
+  <si>
+    <t>Arum Andary Ratri, S.Si., M.Si.</t>
+  </si>
+  <si>
+    <t>Indira Nuansa Ratri, S.M., M.SM.</t>
+  </si>
+  <si>
+    <t>Lukman Hakim S.Kom., M.T</t>
+  </si>
+  <si>
+    <t>Khoirul Umam, S.Pd, M.Kom</t>
+  </si>
+  <si>
+    <t>dimyati@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>dianniyusuf@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>wayan.suardinata@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>ekamrini@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>noer.shodiq@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>dedy@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>akufarisqi@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>herman.yuliandoko@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>devitswar@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>esailulhaq@gmail.com</t>
+  </si>
+  <si>
+    <t>subono@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>alfinhidayat@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>junaedi.prasetyo@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>galih@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>Lutfi@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>Sepyan@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>RuthEmaFebrita@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>agusp@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>Arumandaryratri@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>indiranuansaratri@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>lukmanhakim@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>khoirulumam@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>08123399184</t>
+  </si>
+  <si>
+    <t>082328333399</t>
+  </si>
+  <si>
+    <t>085736577864</t>
+  </si>
+  <si>
+    <t>081913922224</t>
+  </si>
+  <si>
+    <t>085236675444</t>
+  </si>
+  <si>
+    <t>087755527517</t>
+  </si>
+  <si>
+    <t>082244680800</t>
+  </si>
+  <si>
+    <t>081334436478</t>
+  </si>
+  <si>
+    <t>08113570683</t>
+  </si>
+  <si>
+    <t>081336851513</t>
+  </si>
+  <si>
+    <t>087859576210</t>
+  </si>
+  <si>
+    <t>085731147608</t>
+  </si>
+  <si>
+    <t>082333312244</t>
+  </si>
+  <si>
+    <t>083831120642</t>
+  </si>
+  <si>
+    <t>085330161514</t>
+  </si>
+  <si>
+    <t>085237516017</t>
+  </si>
+  <si>
+    <t>085259082627</t>
+  </si>
+  <si>
+    <t>085731311399</t>
+  </si>
+  <si>
+    <t>083117703473</t>
+  </si>
+  <si>
+    <t>083831244299</t>
+  </si>
+  <si>
+    <t>081232947805</t>
+  </si>
+  <si>
+    <t>087755580796</t>
+  </si>
+  <si>
+    <t>Dusun Kraja 001/001 Sumbersari - Srono Banyuwangi 68471</t>
+  </si>
+  <si>
+    <t>Dsn. Gembolo Rt/Rw 01/01 Purwodadi - Gambiran Banyuwangi 68486</t>
+  </si>
+  <si>
+    <t>Jalan Prabu loro 525A Kelurahan Bakungan kecamtan Glagah</t>
+  </si>
+  <si>
+    <t>Dusun WatuUlo Rt/Rw 004/002 Rejosari - Glagah Banyuwangi 68432</t>
+  </si>
+  <si>
+    <t>Kampungtimur 001/004 Trigonco - Asembagus Situbondo 68373</t>
+  </si>
+  <si>
+    <t>Sumber Kepuh Rt/Rw 003/001 Kedungwungu - Tegaldlimo Banyuwangi 68484</t>
+  </si>
+  <si>
+    <t>Jl.S.Parman 33 Gardenia Estate G97</t>
+  </si>
+  <si>
+    <t>Perum Citra Garden Blok F1, Lemahbang Dewo, Rogojampi</t>
+  </si>
+  <si>
+    <t>Perum Mendut Hijau Blok F No 3, Tamanbaru, Banyuwangi</t>
+  </si>
+  <si>
+    <t>Dusun Kebonrejo Rt/Rw 003/001 Alasrejo Wongsorejo - Banyuwangi 68453</t>
+  </si>
+  <si>
+    <t>Jl. Bunga Kumis Kucing no. 20 Rt/Rw 004/002 Jatimulyo - Lowokwaru Malang 65141</t>
+  </si>
+  <si>
+    <t>Surabaya, Jl Ahmad 3 No.15 Rt.01 RW.10 Pepe Legi Waru Sidoarjo</t>
+  </si>
+  <si>
+    <t>Jl. Tirtosari Blok D No 12 Landungsari Malang 65151</t>
+  </si>
+  <si>
+    <t>Jl, kepodang no 11 Rw 1rw 2kalirejo kabat banyuwangi</t>
+  </si>
+  <si>
+    <t>Jl. Temuguruh Rt.03 Rw.01 Resomulyo Banyuwangi</t>
+  </si>
+  <si>
+    <t>Jl. Jaksa Agusng Suprapto, gg Annur 1 no 25 B pengajuran Banywuangi</t>
+  </si>
+  <si>
+    <t>Jl. RW Monginsidi 14 - Banyuwangi 68416</t>
+  </si>
+  <si>
+    <t>Dusun Krajan Barat Rt 1 Rw 1, Desa Singonjuruh Kecamatan Singonjuruh</t>
+  </si>
+  <si>
+    <t>Kedungringin, RT.001/RW.011, Muncar, Banyuwangi</t>
+  </si>
+  <si>
+    <t>LINGK.KRAMAT RT/RW 01/03 KEL.KERTOSARI KEC.BANYUWANGI KAB.BANYUWANGI</t>
+  </si>
+  <si>
+    <t>Dusen Aseman RT 3/RW 2, Desa Bimorejo, Wongsorejo, Banyuwangi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -69,17 +508,76 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{7DECAC79-8052-4BB7-924E-06277E3FD4F4}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{2B6C0CA3-D753-4BC7-AC01-E0E88F6BE33B}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -369,90 +867,694 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="80.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="11">
+        <v>55401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="11">
+        <v>55401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="11">
+        <v>55401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="11">
+        <v>55401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="11">
+        <v>55401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="11">
+        <v>55401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>201336106</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="11">
+        <v>55401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="H9" s="11">
+        <v>55401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2">
+        <v>705118304</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="11">
+        <v>55401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2">
+        <v>15038402</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" s="11">
+        <v>55401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="2">
+        <v>25067508</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" s="11">
+        <v>55401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2">
+        <v>5109001</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" s="11">
+        <v>55401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="2">
+        <v>19049005</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H14" s="11">
+        <v>55401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="2">
+        <v>5099204</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" s="11">
+        <v>55401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="2">
+        <v>30039202</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="11">
+        <v>55401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="2">
+        <v>5099006</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" s="11">
+        <v>55401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="2">
+        <v>27029204</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H18" s="11">
+        <v>55401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="2">
+        <v>27088704</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" s="11">
+        <v>55401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="2">
+        <v>21099202</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" s="11">
+        <v>55401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21" s="11">
+        <v>55401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="2">
+        <v>523038903</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="H22" s="11">
+        <v>55401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="2">
+        <v>711039101</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H23" s="11">
+        <v>55401</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{67033177-5B03-4186-940E-8CCDFDDD4452}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{4FE60E03-577A-4A4F-A1FA-DBB2BA34CDF0}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{D5AC244C-BCDA-4321-927A-2C8B047A4AFF}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{8A11C12E-75A0-4ED2-8A3D-85E9B6202246}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{41D1809B-2BAD-4E3E-BC2A-334E7E7BFECB}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{7C9F4E8E-AA2B-450D-AD02-8F618B2834C8}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{31A7AE93-EC43-44C5-B382-466AAD2268C7}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{4AB2A663-6C82-4F36-8FDB-AFA4D9B87609}"/>
+    <hyperlink ref="E11" r:id="rId9" display="mailto:esailulhaq@gmail.com" xr:uid="{74B3837B-F3C3-4EDB-9AD5-3F791964A73B}"/>
+    <hyperlink ref="E12" r:id="rId10" display="mailto:subono@poliwangi.ac.id" xr:uid="{0535C4CC-3A29-4F2B-B1EF-51142C6324CA}"/>
+    <hyperlink ref="E10" r:id="rId11" xr:uid="{89DA3977-AF73-41AF-9EF2-81CEE6576E21}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{757FDD0F-B01A-4FEA-851A-F04BC61B0F56}"/>
+    <hyperlink ref="E14" r:id="rId13" display="mailto:junaedi.prasetyo@poliwangi.ac.id" xr:uid="{13F27499-4180-4DA1-942D-6EC72E742556}"/>
+    <hyperlink ref="E16" r:id="rId14" display="mailto:Lutfi@poliwangi.ac.id" xr:uid="{F03E68CE-1975-4A88-8CC3-BFFB863DFB3F}"/>
+    <hyperlink ref="E17" r:id="rId15" xr:uid="{9BD74CAB-D0C8-4909-9FEB-91782EB98870}"/>
+    <hyperlink ref="E18" r:id="rId16" display="mailto:RuthEmaFebrita@poliwangi.ac.id" xr:uid="{AF71F00F-4942-449E-B7A1-97D2B79D29CE}"/>
+    <hyperlink ref="E19" r:id="rId17" display="mailto:banksonk@poliwangi.ac.id" xr:uid="{EA5B48A1-833A-4675-BA05-4B05D492858E}"/>
+    <hyperlink ref="E20" r:id="rId18" display="mailto:Arumandaryratri@poliwangi.ac.id" xr:uid="{3C1354D3-2DE5-4506-BF52-70AB675150C2}"/>
+    <hyperlink ref="E21" r:id="rId19" xr:uid="{FE14284F-60BD-42DA-B000-5C0F0342467F}"/>
+    <hyperlink ref="E22" r:id="rId20" xr:uid="{6DCB0926-31E1-41D6-AA0C-5F9B1C09505A}"/>
+    <hyperlink ref="E23" r:id="rId21" xr:uid="{7BADF49E-F740-4812-94FD-4E41920DBE86}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>55401</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3253</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/public/assets/files/Data Dosen.xlsx
+++ b/public/assets/files/Data Dosen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Coding\Monitoring TA\SIMONIKA\public\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5F04AC-7939-4525-8CDA-7B3FC8699CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43240215-7C0E-403B-B14B-1C19FE059B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="182">
   <si>
     <t>nip</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Nama Program Studi</t>
   </si>
   <si>
-    <t>0891</t>
-  </si>
-  <si>
     <t>S1 Terapan Teknologi Rekayasa Komputer</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>0720108301</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0019018307</t>
-  </si>
-  <si>
     <t>0004047712</t>
   </si>
   <si>
@@ -89,30 +83,6 @@
     <t>0027097504</t>
   </si>
   <si>
-    <t>110010122</t>
-  </si>
-  <si>
-    <t>197601222021211001</t>
-  </si>
-  <si>
-    <t>198403052021212004</t>
-  </si>
-  <si>
-    <t>198010222015041001</t>
-  </si>
-  <si>
-    <t>198310202014042001</t>
-  </si>
-  <si>
-    <t>198301192021211006</t>
-  </si>
-  <si>
-    <t>197704042021211004</t>
-  </si>
-  <si>
-    <t>197509272021211002</t>
-  </si>
-  <si>
     <t>198311052015041000</t>
   </si>
   <si>
@@ -146,9 +116,6 @@
     <t>199209212020122000</t>
   </si>
   <si>
-    <t>202136248</t>
-  </si>
-  <si>
     <t>198903232022031000</t>
   </si>
   <si>
@@ -245,18 +212,12 @@
     <t>herman.yuliandoko@poliwangi.ac.id</t>
   </si>
   <si>
-    <t>devitswar@poliwangi.ac.id</t>
-  </si>
-  <si>
     <t>esailulhaq@gmail.com</t>
   </si>
   <si>
     <t>subono@poliwangi.ac.id</t>
   </si>
   <si>
-    <t>alfinhidayat@poliwangi.ac.id</t>
-  </si>
-  <si>
     <t>junaedi.prasetyo@poliwangi.ac.id</t>
   </si>
   <si>
@@ -278,9 +239,6 @@
     <t>Arumandaryratri@poliwangi.ac.id</t>
   </si>
   <si>
-    <t>indiranuansaratri@poliwangi.ac.id</t>
-  </si>
-  <si>
     <t>lukmanhakim@poliwangi.ac.id</t>
   </si>
   <si>
@@ -420,13 +378,205 @@
   </si>
   <si>
     <t>Dusen Aseman RT 3/RW 2, Desa Bimorejo, Wongsorejo, Banyuwangi</t>
+  </si>
+  <si>
+    <t>Vivien Arief Wardhany, S.T., M.T.</t>
+  </si>
+  <si>
+    <t>Muh. Fuad Al Haris, S.T., M.T.</t>
+  </si>
+  <si>
+    <t>Arif Fahmi, S.T., M.T.</t>
+  </si>
+  <si>
+    <t>Eka Novita Sari, S. Kom., M.Kom.</t>
+  </si>
+  <si>
+    <t>Furiansyah Dipraja, S.T., M.Kom.</t>
+  </si>
+  <si>
+    <t>Indra Kurniawan, S.T., M.Eng.</t>
+  </si>
+  <si>
+    <t>199607142024061000</t>
+  </si>
+  <si>
+    <t>199408122024061000</t>
+  </si>
+  <si>
+    <t>199312032024062000</t>
+  </si>
+  <si>
+    <t>197601222021211000</t>
+  </si>
+  <si>
+    <t>198403052021212000</t>
+  </si>
+  <si>
+    <t>197704042021211000</t>
+  </si>
+  <si>
+    <t>199607032024062000</t>
+  </si>
+  <si>
+    <t>199503032024061000</t>
+  </si>
+  <si>
+    <t>198603052024211000</t>
+  </si>
+  <si>
+    <t>197509272021211000</t>
+  </si>
+  <si>
+    <t>198404032019032000</t>
+  </si>
+  <si>
+    <t>197806132014041000</t>
+  </si>
+  <si>
+    <t>198301192021211000</t>
+  </si>
+  <si>
+    <t>198010222015041000</t>
+  </si>
+  <si>
+    <t>198310202014042000</t>
+  </si>
+  <si>
+    <t>vivien.wardhany@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>ds@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>alfin.hidayat@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>f_haris@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>indira.nuansaratri@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>fahmi1995@gmail.com</t>
+  </si>
+  <si>
+    <t>ekanovitasari1993@gmail.com</t>
+  </si>
+  <si>
+    <t>furiansyah.dipraja@gmail.com</t>
+  </si>
+  <si>
+    <t>indranaftena@gmail.com</t>
+  </si>
+  <si>
+    <t>081331068658</t>
+  </si>
+  <si>
+    <t>081234619898</t>
+  </si>
+  <si>
+    <t>081217945658</t>
+  </si>
+  <si>
+    <t>085736907069</t>
+  </si>
+  <si>
+    <t>082129916997</t>
+  </si>
+  <si>
+    <t>085293810942</t>
+  </si>
+  <si>
+    <t>Perum Citra Garden Blok C-20, Dusun Satriyan 002/004 Lemahbangdewo Rogojampi - Banyuwangi 68462</t>
+  </si>
+  <si>
+    <t>Dsn.Krajan 02/01 Blambangan - Muncar Banyuwangi 68472</t>
+  </si>
+  <si>
+    <t>Perum Brawijaya Regency Jl. Basuki Rahmat Gg.Mangga No.12 Rt/Rw 002/004 Lateng - Banyuwangi 68413</t>
+  </si>
+  <si>
+    <t>Dusun Cangkring RT 03 RW 02 Desa Pengatigan Kecamatan Rogojampi</t>
+  </si>
+  <si>
+    <t>Perumahan Puri Aliyan Blok H10-11, Rogojampi, Banyuwangi</t>
+  </si>
+  <si>
+    <t>Pasir Angin 02/07 Desa Cilengkrang Kec.Cilengkrang Kab.Bandung 40615</t>
+  </si>
+  <si>
+    <t>Bulu RT 3 RW 4, Punduhsari, Manyaran, Wonogiri</t>
+  </si>
+  <si>
+    <t>0019018307</t>
+  </si>
+  <si>
+    <t>0003048406</t>
+  </si>
+  <si>
+    <t>0705118304</t>
+  </si>
+  <si>
+    <t>0015038402</t>
+  </si>
+  <si>
+    <t>0025067508</t>
+  </si>
+  <si>
+    <t>0005109001</t>
+  </si>
+  <si>
+    <t>0713067802</t>
+  </si>
+  <si>
+    <t>0019049005</t>
+  </si>
+  <si>
+    <t>0005099204</t>
+  </si>
+  <si>
+    <t>0030039202</t>
+  </si>
+  <si>
+    <t>005099006</t>
+  </si>
+  <si>
+    <t>0027029204</t>
+  </si>
+  <si>
+    <t>0027088704</t>
+  </si>
+  <si>
+    <t>0021099202</t>
+  </si>
+  <si>
+    <t>0523038903</t>
+  </si>
+  <si>
+    <t>0711039101</t>
+  </si>
+  <si>
+    <t>0703039501</t>
+  </si>
+  <si>
+    <t>0003129303</t>
+  </si>
+  <si>
+    <t>0012089403</t>
+  </si>
+  <si>
+    <t>0014079602</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="000000000000000"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -445,19 +595,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
@@ -472,17 +609,34 @@
       <family val="2"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -508,62 +662,64 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{7DECAC79-8052-4BB7-924E-06277E3FD4F4}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{2B6C0CA3-D753-4BC7-AC01-E0E88F6BE33B}"/>
@@ -868,645 +1024,821 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" zoomScale="42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="80.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="84.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="13">
+        <v>58302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" s="13">
+        <v>55401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="13">
+        <v>61316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="13">
+        <v>55401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="13">
+        <v>61316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="13">
+        <v>61316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="13">
+        <v>55401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="13">
+        <v>58302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" s="13">
+        <v>58302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="13">
+        <v>55401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="13">
+        <v>58302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="13">
+        <v>58302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B14" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D14" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H14" s="13">
+        <v>58302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H15" s="13">
+        <v>61316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="G16" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="13">
+        <v>58302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F17" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" s="13">
+        <v>58302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" s="13">
+        <v>55401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H19" s="13">
         <v>55401</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" s="10" t="s">
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H20" s="13">
         <v>55401</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="10" t="s">
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H21" s="13">
+        <v>58302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H22" s="13">
+        <v>61316</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H23" s="13">
+        <v>61316</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H24" s="13">
         <v>55401</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H5" s="11">
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H25" s="13">
         <v>55401</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="H6" s="11">
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H26" s="13">
+        <v>58302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H27" s="13">
         <v>55401</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="H7" s="11">
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="H28" s="13">
         <v>55401</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>201336106</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="H8" s="11">
-        <v>55401</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="H9" s="11">
-        <v>55401</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="2">
-        <v>705118304</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="H10" s="11">
-        <v>55401</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="2">
-        <v>15038402</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H11" s="11">
-        <v>55401</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="2">
-        <v>25067508</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="H12" s="11">
-        <v>55401</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="2">
-        <v>5109001</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="H13" s="11">
-        <v>55401</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="2">
-        <v>19049005</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G14" s="13" t="s">
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H14" s="11">
-        <v>55401</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="2">
-        <v>5099204</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="H15" s="11">
-        <v>55401</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="2">
-        <v>30039202</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="H16" s="11">
-        <v>55401</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="2">
-        <v>5099006</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="H17" s="11">
-        <v>55401</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="2">
-        <v>27029204</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="H18" s="11">
-        <v>55401</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="2">
-        <v>27088704</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="H19" s="11">
-        <v>55401</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="2">
-        <v>21099202</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="H20" s="11">
-        <v>55401</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="H21" s="11">
-        <v>55401</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="2">
-        <v>523038903</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="H22" s="11">
-        <v>55401</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="2">
-        <v>711039101</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="H23" s="11">
-        <v>55401</v>
-      </c>
+      <c r="D29" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H29" s="13">
+        <v>58302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C30" s="1"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C37" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{67033177-5B03-4186-940E-8CCDFDDD4452}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{4FE60E03-577A-4A4F-A1FA-DBB2BA34CDF0}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{D5AC244C-BCDA-4321-927A-2C8B047A4AFF}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{8A11C12E-75A0-4ED2-8A3D-85E9B6202246}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{41D1809B-2BAD-4E3E-BC2A-334E7E7BFECB}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{7C9F4E8E-AA2B-450D-AD02-8F618B2834C8}"/>
-    <hyperlink ref="E8" r:id="rId7" xr:uid="{31A7AE93-EC43-44C5-B382-466AAD2268C7}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{4AB2A663-6C82-4F36-8FDB-AFA4D9B87609}"/>
-    <hyperlink ref="E11" r:id="rId9" display="mailto:esailulhaq@gmail.com" xr:uid="{74B3837B-F3C3-4EDB-9AD5-3F791964A73B}"/>
-    <hyperlink ref="E12" r:id="rId10" display="mailto:subono@poliwangi.ac.id" xr:uid="{0535C4CC-3A29-4F2B-B1EF-51142C6324CA}"/>
-    <hyperlink ref="E10" r:id="rId11" xr:uid="{89DA3977-AF73-41AF-9EF2-81CEE6576E21}"/>
-    <hyperlink ref="E13" r:id="rId12" xr:uid="{757FDD0F-B01A-4FEA-851A-F04BC61B0F56}"/>
-    <hyperlink ref="E14" r:id="rId13" display="mailto:junaedi.prasetyo@poliwangi.ac.id" xr:uid="{13F27499-4180-4DA1-942D-6EC72E742556}"/>
-    <hyperlink ref="E16" r:id="rId14" display="mailto:Lutfi@poliwangi.ac.id" xr:uid="{F03E68CE-1975-4A88-8CC3-BFFB863DFB3F}"/>
-    <hyperlink ref="E17" r:id="rId15" xr:uid="{9BD74CAB-D0C8-4909-9FEB-91782EB98870}"/>
-    <hyperlink ref="E18" r:id="rId16" display="mailto:RuthEmaFebrita@poliwangi.ac.id" xr:uid="{AF71F00F-4942-449E-B7A1-97D2B79D29CE}"/>
-    <hyperlink ref="E19" r:id="rId17" display="mailto:banksonk@poliwangi.ac.id" xr:uid="{EA5B48A1-833A-4675-BA05-4B05D492858E}"/>
-    <hyperlink ref="E20" r:id="rId18" display="mailto:Arumandaryratri@poliwangi.ac.id" xr:uid="{3C1354D3-2DE5-4506-BF52-70AB675150C2}"/>
-    <hyperlink ref="E21" r:id="rId19" xr:uid="{FE14284F-60BD-42DA-B000-5C0F0342467F}"/>
-    <hyperlink ref="E22" r:id="rId20" xr:uid="{6DCB0926-31E1-41D6-AA0C-5F9B1C09505A}"/>
-    <hyperlink ref="E23" r:id="rId21" xr:uid="{7BADF49E-F740-4812-94FD-4E41920DBE86}"/>
+    <hyperlink ref="E2" r:id="rId1" display="mailto:dimyati@poliwangi.ac.id" xr:uid="{6F6596ED-7FF5-4AE4-B881-1D47336879EA}"/>
+    <hyperlink ref="E3" r:id="rId2" display="mailto:dianniyusuf@poliwangi.ac.id" xr:uid="{350FD59A-B7E0-402C-A034-A67AE75E1AA0}"/>
+    <hyperlink ref="E4" r:id="rId3" display="mailto:wayan.suardinata@poliwangi.ac.id" xr:uid="{CFD8E327-8C8A-46D5-8E76-BD80DCA503EA}"/>
+    <hyperlink ref="E5" r:id="rId4" display="mailto:ekamrini@poliwangi.ac.id" xr:uid="{7D1A0366-EC9E-4E77-8335-699F2DDE051B}"/>
+    <hyperlink ref="E6" r:id="rId5" display="mailto:noer.shodiq@poliwangi.ac.id" xr:uid="{C0123087-9CAE-4A31-87B5-BE522A194F2E}"/>
+    <hyperlink ref="E7" r:id="rId6" display="mailto:dedy@poliwangi.ac.id" xr:uid="{2E806D89-8B80-4E92-AE81-75CA3BD6F512}"/>
+    <hyperlink ref="E8" r:id="rId7" display="mailto:akufarisqi@gmail.com" xr:uid="{02E6D83A-2F0B-4587-B85B-5EC7C325E05C}"/>
+    <hyperlink ref="E9" r:id="rId8" display="mailto:herman.yuliandoko@poliwangi.ac.id" xr:uid="{47AC5B22-89C8-4A7B-946D-EC82E0903E5B}"/>
+    <hyperlink ref="E10" r:id="rId9" display="mailto:vivien.wardhany@gmail.com" xr:uid="{0FD44067-1C53-420D-AB2A-A7013F1842F8}"/>
+    <hyperlink ref="E12" r:id="rId10" display="mailto:esailulhaq@gmail.com" xr:uid="{67CC6618-307C-4DA9-A042-545B47C3CD18}"/>
+    <hyperlink ref="E13" r:id="rId11" display="mailto:subono@poliwangi.ac.id" xr:uid="{C15BA43E-9DFD-425A-A561-CD1CC2913DAB}"/>
+    <hyperlink ref="E15" r:id="rId12" display="mailto:f_haris@poliwangi.ac.id" xr:uid="{77B8A0F1-0BE2-4FE8-8B53-64966AA226A6}"/>
+    <hyperlink ref="E16" r:id="rId13" display="mailto:junaedi.prasetyo@poliwangi.ac.id" xr:uid="{AF38A7CF-25B9-4728-9DD6-03552D701351}"/>
+    <hyperlink ref="E18" r:id="rId14" display="mailto:Lutfi@poliwangi.ac.id" xr:uid="{F2A73A48-15B8-41E7-A31A-5F18BBFF83AA}"/>
+    <hyperlink ref="E19" r:id="rId15" display="mailto:Sepyan@poliwangi.ac.id" xr:uid="{C335B0F2-9154-45FE-B7C2-B94F5295DCD3}"/>
+    <hyperlink ref="E20" r:id="rId16" display="mailto:RuthEmaFebrita@poliwangi.ac.id" xr:uid="{DB7B58E3-0360-4AC1-AC04-0CB0B44A17A3}"/>
+    <hyperlink ref="E21" r:id="rId17" display="mailto:banksonk@poliwangi.ac.id" xr:uid="{9BFF6AD3-0358-42F4-A165-D78C8A635D5C}"/>
+    <hyperlink ref="E22" r:id="rId18" display="mailto:Arumandaryratri@poliwangi.ac.id" xr:uid="{E7BC52A3-D9E1-46C1-A8B0-70CC3689EA36}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1517,7 +1849,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,11 +1863,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>58302</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1543,15 +1875,15 @@
         <v>55401</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3253</v>
+        <v>61316</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
